--- a/clasificaciones_preguntas_completas.xlsx
+++ b/clasificaciones_preguntas_completas.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Negativa</t>
         </is>
       </c>
     </row>

--- a/clasificaciones_preguntas_completas.xlsx
+++ b/clasificaciones_preguntas_completas.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clasificaciones" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Conteo" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2416,4 +2417,65 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Clasificación</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>